--- a/furnizori/anothercompany222/invoice controller.xlsx
+++ b/furnizori/anothercompany222/invoice controller.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="8">
   <si>
     <t>Serial</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>4.DECEMBER.21</t>
+  </si>
+  <si>
+    <t>5.DECEMBER.21</t>
   </si>
 </sst>
 </file>
@@ -491,17 +494,33 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="9"/>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
